--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23550" windowHeight="13215" activeTab="3"/>
+    <workbookView windowWidth="24180" windowHeight="13215" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="园区收入" sheetId="2" r:id="rId1"/>
@@ -1840,14 +1840,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="m&quot;月&quot;"/>
-    <numFmt numFmtId="177" formatCode="0_ "/>
-    <numFmt numFmtId="178" formatCode="m/d\ h:mm"/>
-    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="179" formatCode="m/d\ h:mm"/>
     <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="25">
@@ -1892,32 +1892,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1931,16 +1930,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1960,8 +1960,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1975,6 +1992,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -1982,33 +2007,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2023,14 +2030,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2045,7 +2045,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2057,25 +2069,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2093,25 +2171,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2123,55 +2189,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2189,43 +2219,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2236,69 +2236,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2320,8 +2257,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2336,6 +2303,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2344,10 +2344,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2356,133 +2356,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2554,7 +2554,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2563,7 +2563,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2572,7 +2572,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -2587,7 +2587,7 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2959,10 +2959,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K115"/>
+  <dimension ref="A1:K168"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A105" sqref="A105:C115"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="A116" sqref="A116:A168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5558,6 +5558,1209 @@
         <v>43087.9375</v>
       </c>
     </row>
+    <row r="116" spans="1:6">
+      <c r="A116">
+        <v>999946</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C116" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D116" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E116" s="32"/>
+      <c r="F116" s="3">
+        <v>1639023</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117">
+        <v>999946</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C117" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D117" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E117" s="10">
+        <v>1</v>
+      </c>
+      <c r="F117" s="3">
+        <v>98111</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118">
+        <v>999946</v>
+      </c>
+      <c r="B118" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C118" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D118" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E118" s="10">
+        <v>2</v>
+      </c>
+      <c r="F118" s="3">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119">
+        <v>999946</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C119" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D119" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E119" s="10">
+        <v>3</v>
+      </c>
+      <c r="F119" s="3">
+        <v>132633</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120">
+        <v>999946</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C120" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D120" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E120" s="10">
+        <v>4</v>
+      </c>
+      <c r="F120" s="3">
+        <v>155610</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121">
+        <v>999946</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C121" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D121" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E121" s="10">
+        <v>5</v>
+      </c>
+      <c r="F121" s="3">
+        <v>186846</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122">
+        <v>999946</v>
+      </c>
+      <c r="B122" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C122" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D122" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E122" s="10">
+        <v>6</v>
+      </c>
+      <c r="F122" s="3">
+        <v>139998</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123">
+        <v>999946</v>
+      </c>
+      <c r="B123" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C123" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D123" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E123" s="10">
+        <v>7</v>
+      </c>
+      <c r="F123" s="3">
+        <v>135616</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124">
+        <v>999946</v>
+      </c>
+      <c r="B124" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C124" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D124" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E124" s="10">
+        <v>8</v>
+      </c>
+      <c r="F124" s="3">
+        <v>103131</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125">
+        <v>999946</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C125" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D125" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E125" s="10">
+        <v>9</v>
+      </c>
+      <c r="F125" s="3">
+        <v>178460</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126">
+        <v>999946</v>
+      </c>
+      <c r="B126" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C126" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D126" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E126" s="10">
+        <v>10</v>
+      </c>
+      <c r="F126" s="3">
+        <v>197726</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127">
+        <v>999946</v>
+      </c>
+      <c r="B127" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C127" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D127" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E127" s="10">
+        <v>11</v>
+      </c>
+      <c r="F127" s="3">
+        <v>200281</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128">
+        <v>999946</v>
+      </c>
+      <c r="B128" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C128" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D128" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E128" s="10">
+        <v>12</v>
+      </c>
+      <c r="F128" s="3">
+        <v>12376</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129">
+        <v>999946</v>
+      </c>
+      <c r="B129" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C129" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D129" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E129" s="32"/>
+      <c r="F129" s="3">
+        <v>6180</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130">
+        <v>999946</v>
+      </c>
+      <c r="B130" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C130" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D130" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E130" s="10">
+        <v>1</v>
+      </c>
+      <c r="F130" s="3">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131">
+        <v>999946</v>
+      </c>
+      <c r="B131" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C131" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D131" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E131" s="10">
+        <v>2</v>
+      </c>
+      <c r="F131" s="3">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132">
+        <v>999946</v>
+      </c>
+      <c r="B132" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C132" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D132" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E132" s="10">
+        <v>3</v>
+      </c>
+      <c r="F132" s="3">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133">
+        <v>999946</v>
+      </c>
+      <c r="B133" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C133" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D133" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E133" s="10">
+        <v>4</v>
+      </c>
+      <c r="F133" s="3">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134">
+        <v>999946</v>
+      </c>
+      <c r="B134" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C134" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D134" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E134" s="10">
+        <v>5</v>
+      </c>
+      <c r="F134" s="3">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135">
+        <v>999946</v>
+      </c>
+      <c r="B135" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C135" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D135" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E135" s="10">
+        <v>6</v>
+      </c>
+      <c r="F135" s="3">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136">
+        <v>999946</v>
+      </c>
+      <c r="B136" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C136" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D136" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E136" s="10">
+        <v>7</v>
+      </c>
+      <c r="F136" s="3">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137">
+        <v>999946</v>
+      </c>
+      <c r="B137" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C137" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D137" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E137" s="10">
+        <v>8</v>
+      </c>
+      <c r="F137" s="3">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138">
+        <v>999946</v>
+      </c>
+      <c r="B138" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C138" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D138" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E138" s="10">
+        <v>9</v>
+      </c>
+      <c r="F138" s="3">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139">
+        <v>999946</v>
+      </c>
+      <c r="B139" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C139" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D139" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E139" s="10">
+        <v>10</v>
+      </c>
+      <c r="F139" s="3">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140">
+        <v>999946</v>
+      </c>
+      <c r="B140" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C140" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D140" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E140" s="10">
+        <v>11</v>
+      </c>
+      <c r="F140" s="3">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141">
+        <v>999946</v>
+      </c>
+      <c r="B141" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C141" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D141" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E141" s="10">
+        <v>12</v>
+      </c>
+      <c r="F141" s="3">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142">
+        <v>999946</v>
+      </c>
+      <c r="B142" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C142" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D142" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E142" s="32"/>
+      <c r="F142" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143">
+        <v>999946</v>
+      </c>
+      <c r="B143" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C143" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D143" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E143" s="32"/>
+      <c r="F143" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144">
+        <v>999946</v>
+      </c>
+      <c r="B144" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C144" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="D144" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E144" s="32"/>
+      <c r="F144" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145">
+        <v>999946</v>
+      </c>
+      <c r="B145" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C145" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="D145" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E145" s="32"/>
+      <c r="F145" s="3">
+        <v>1022000</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146">
+        <v>999946</v>
+      </c>
+      <c r="B146" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C146" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="D146" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E146" s="32"/>
+      <c r="F146" s="3">
+        <v>101103</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147">
+        <v>999946</v>
+      </c>
+      <c r="B147" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C147" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="D147" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E147" s="32"/>
+      <c r="F147" s="3">
+        <v>202900</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148">
+        <v>999946</v>
+      </c>
+      <c r="B148" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C148" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D148" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E148" s="32"/>
+      <c r="F148" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149">
+        <v>999946</v>
+      </c>
+      <c r="B149" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C149" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D149" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E149" s="32"/>
+      <c r="F149" s="3">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150">
+        <v>999946</v>
+      </c>
+      <c r="B150" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C150" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D150" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E150" s="32"/>
+      <c r="F150" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151">
+        <v>999946</v>
+      </c>
+      <c r="B151" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C151" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D151" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E151" s="32"/>
+      <c r="F151" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="A152">
+        <v>999946</v>
+      </c>
+      <c r="B152" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C152" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D152" s="32"/>
+      <c r="E152" s="32"/>
+      <c r="F152" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="G152" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="H152" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="I152" s="37">
+        <v>100</v>
+      </c>
+      <c r="J152" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="K152" s="23">
+        <v>43031.5208333333</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
+      <c r="A153">
+        <v>999946</v>
+      </c>
+      <c r="B153" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C153" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D153"/>
+      <c r="E153"/>
+      <c r="F153" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="G153" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="H153" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="I153" s="37">
+        <v>200</v>
+      </c>
+      <c r="J153" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="K153" s="23">
+        <v>43038.6041666667</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
+      <c r="A154">
+        <v>999946</v>
+      </c>
+      <c r="B154" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C154" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D154"/>
+      <c r="E154"/>
+      <c r="F154" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="G154" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="H154" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="I154" s="37">
+        <v>30</v>
+      </c>
+      <c r="J154" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="K154" s="23">
+        <v>43047.8125</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
+      <c r="A155">
+        <v>999946</v>
+      </c>
+      <c r="B155" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C155" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D155"/>
+      <c r="E155"/>
+      <c r="F155" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="G155" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="H155" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="I155" s="37">
+        <v>60</v>
+      </c>
+      <c r="J155" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="K155" s="23">
+        <v>43051.8541666667</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
+      <c r="A156">
+        <v>999946</v>
+      </c>
+      <c r="B156" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C156" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D156"/>
+      <c r="E156"/>
+      <c r="F156" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="G156" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="H156" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="I156" s="37">
+        <v>800</v>
+      </c>
+      <c r="J156" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="K156" s="23">
+        <v>43056.8958333333</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
+      <c r="A157">
+        <v>999946</v>
+      </c>
+      <c r="B157" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C157" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D157"/>
+      <c r="E157"/>
+      <c r="F157" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="G157" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H157" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="I157" s="37">
+        <v>100</v>
+      </c>
+      <c r="J157" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="K157" s="23">
+        <v>43065.9375</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
+      <c r="A158">
+        <v>999946</v>
+      </c>
+      <c r="B158" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C158" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D158"/>
+      <c r="E158"/>
+      <c r="F158" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="G158" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="H158" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="I158" s="37">
+        <v>200</v>
+      </c>
+      <c r="J158" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="K158" s="23">
+        <v>43077.9375</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
+      <c r="A159">
+        <v>999946</v>
+      </c>
+      <c r="B159" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C159" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="F159" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="G159" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="H159" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="I159" s="37">
+        <v>201</v>
+      </c>
+      <c r="J159" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="K159" s="23">
+        <v>43078.9375</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
+      <c r="A160">
+        <v>999946</v>
+      </c>
+      <c r="B160" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C160" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="F160" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="G160" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="H160" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="I160" s="37">
+        <v>202</v>
+      </c>
+      <c r="J160" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="K160" s="23">
+        <v>43079.9375</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
+      <c r="A161">
+        <v>999946</v>
+      </c>
+      <c r="B161" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C161" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="F161" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="G161" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="H161" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="I161" s="37">
+        <v>203</v>
+      </c>
+      <c r="J161" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="K161" s="23">
+        <v>43080.9375</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
+      <c r="A162">
+        <v>999946</v>
+      </c>
+      <c r="B162" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C162" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="F162" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="G162" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="H162" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="I162" s="37">
+        <v>204</v>
+      </c>
+      <c r="J162" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="K162" s="23">
+        <v>43081.9375</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
+      <c r="A163">
+        <v>999946</v>
+      </c>
+      <c r="B163" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C163" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="F163" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="G163" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="H163" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="I163" s="37">
+        <v>205</v>
+      </c>
+      <c r="J163" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="K163" s="23">
+        <v>43082.9375</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
+      <c r="A164">
+        <v>999946</v>
+      </c>
+      <c r="B164" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C164" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="F164" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="G164" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="H164" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="I164" s="37">
+        <v>206</v>
+      </c>
+      <c r="J164" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="K164" s="23">
+        <v>43083.9375</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11">
+      <c r="A165">
+        <v>999946</v>
+      </c>
+      <c r="B165" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C165" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="F165" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="G165" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="H165" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="I165" s="37">
+        <v>207</v>
+      </c>
+      <c r="J165" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="K165" s="23">
+        <v>43084.9375</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
+      <c r="A166">
+        <v>999946</v>
+      </c>
+      <c r="B166" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C166" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="F166" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="G166" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="H166" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="I166" s="37">
+        <v>208</v>
+      </c>
+      <c r="J166" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="K166" s="23">
+        <v>43085.9375</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
+      <c r="A167">
+        <v>999946</v>
+      </c>
+      <c r="B167" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C167" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="F167" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="G167" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="H167" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="I167" s="37">
+        <v>209</v>
+      </c>
+      <c r="J167" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="K167" s="23">
+        <v>43086.9375</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
+      <c r="A168">
+        <v>999946</v>
+      </c>
+      <c r="B168" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C168" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="F168" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="G168" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="H168" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="I168" s="37">
+        <v>210</v>
+      </c>
+      <c r="J168" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="K168" s="23">
+        <v>43087.9375</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5568,10 +6771,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M191"/>
+  <dimension ref="A1:M287"/>
   <sheetViews>
-    <sheetView topLeftCell="A149" workbookViewId="0">
-      <selection activeCell="M176" sqref="M176"/>
+    <sheetView topLeftCell="A170" workbookViewId="0">
+      <selection activeCell="A192" sqref="A192:A287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -10244,6 +11447,2104 @@
       <c r="J191" s="31"/>
       <c r="K191" s="31"/>
     </row>
+    <row r="192" ht="14.25" spans="1:9">
+      <c r="A192">
+        <v>999946</v>
+      </c>
+      <c r="B192" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C192" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D192" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E192" s="10"/>
+      <c r="F192" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="G192" s="31"/>
+      <c r="H192" s="31"/>
+      <c r="I192" s="31"/>
+    </row>
+    <row r="193" ht="14.25" spans="1:9">
+      <c r="A193">
+        <v>999946</v>
+      </c>
+      <c r="B193" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C193" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D193" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E193" s="10"/>
+      <c r="F193" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G193" s="31"/>
+      <c r="H193" s="31"/>
+      <c r="I193" s="31"/>
+    </row>
+    <row r="194" ht="14.25" spans="1:9">
+      <c r="A194">
+        <v>999946</v>
+      </c>
+      <c r="B194" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C194" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D194" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E194" s="10"/>
+      <c r="F194" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="G194" s="31"/>
+      <c r="H194" s="31"/>
+      <c r="I194" s="31"/>
+    </row>
+    <row r="195" ht="14.25" spans="1:9">
+      <c r="A195">
+        <v>999946</v>
+      </c>
+      <c r="B195" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C195" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D195" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E195" s="10"/>
+      <c r="F195" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="G195" s="31"/>
+      <c r="H195" s="31"/>
+      <c r="I195" s="31"/>
+    </row>
+    <row r="196" ht="14.25" spans="1:9">
+      <c r="A196">
+        <v>999946</v>
+      </c>
+      <c r="B196" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C196" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D196" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E196" s="10"/>
+      <c r="F196" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G196" s="31"/>
+      <c r="H196" s="31"/>
+      <c r="I196" s="31"/>
+    </row>
+    <row r="197" ht="14.25" spans="1:9">
+      <c r="A197">
+        <v>999946</v>
+      </c>
+      <c r="B197" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C197" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D197" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E197" s="10"/>
+      <c r="F197" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G197" s="31"/>
+      <c r="H197" s="31"/>
+      <c r="I197" s="31"/>
+    </row>
+    <row r="198" ht="14.25" spans="1:9">
+      <c r="A198">
+        <v>999946</v>
+      </c>
+      <c r="B198" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C198" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D198" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E198" s="32"/>
+      <c r="F198" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="G198" s="31"/>
+      <c r="H198" s="31"/>
+      <c r="I198" s="31"/>
+    </row>
+    <row r="199" ht="14.25" spans="1:9">
+      <c r="A199">
+        <v>999946</v>
+      </c>
+      <c r="B199" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C199" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D199" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E199" s="32"/>
+      <c r="F199" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="G199" s="31"/>
+      <c r="H199" s="31"/>
+      <c r="I199" s="31"/>
+    </row>
+    <row r="200" ht="14.25" spans="1:9">
+      <c r="A200">
+        <v>999946</v>
+      </c>
+      <c r="B200" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C200" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D200" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E200" s="32"/>
+      <c r="F200" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="G200" s="31"/>
+      <c r="H200" s="31"/>
+      <c r="I200" s="31"/>
+    </row>
+    <row r="201" ht="14.25" spans="1:9">
+      <c r="A201">
+        <v>999946</v>
+      </c>
+      <c r="B201" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C201" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D201" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E201" s="32"/>
+      <c r="F201" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="G201" s="31"/>
+      <c r="H201" s="31"/>
+      <c r="I201" s="31"/>
+    </row>
+    <row r="202" ht="14.25" spans="1:9">
+      <c r="A202">
+        <v>999946</v>
+      </c>
+      <c r="B202" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C202" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D202" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E202" s="32"/>
+      <c r="F202" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="G202" s="31"/>
+      <c r="H202" s="31"/>
+      <c r="I202" s="31"/>
+    </row>
+    <row r="203" ht="14.25" spans="1:9">
+      <c r="A203">
+        <v>999946</v>
+      </c>
+      <c r="B203" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C203" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D203" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="E203" s="10"/>
+      <c r="F203" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="G203" s="31"/>
+      <c r="H203" s="31"/>
+      <c r="I203" s="31"/>
+    </row>
+    <row r="204" ht="14.25" spans="1:9">
+      <c r="A204">
+        <v>999946</v>
+      </c>
+      <c r="B204" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C204" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D204" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="E204" s="10"/>
+      <c r="F204" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="G204" s="31"/>
+      <c r="H204" s="31"/>
+      <c r="I204" s="31"/>
+    </row>
+    <row r="205" ht="14.25" spans="1:9">
+      <c r="A205">
+        <v>999946</v>
+      </c>
+      <c r="B205" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C205" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D205" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="E205" s="10"/>
+      <c r="F205" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="G205" s="31"/>
+      <c r="H205" s="31"/>
+      <c r="I205" s="31"/>
+    </row>
+    <row r="206" ht="14.25" spans="1:9">
+      <c r="A206">
+        <v>999946</v>
+      </c>
+      <c r="B206" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C206" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D206" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="E206" s="10"/>
+      <c r="F206" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G206" s="31"/>
+      <c r="H206" s="31"/>
+      <c r="I206" s="31"/>
+    </row>
+    <row r="207" ht="14.25" spans="1:9">
+      <c r="A207">
+        <v>999946</v>
+      </c>
+      <c r="B207" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C207" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D207" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="E207" s="10"/>
+      <c r="F207" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="G207" s="31"/>
+      <c r="H207" s="31"/>
+      <c r="I207" s="31"/>
+    </row>
+    <row r="208" ht="14.25" spans="1:9">
+      <c r="A208">
+        <v>999946</v>
+      </c>
+      <c r="B208" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C208" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D208" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="E208" s="10"/>
+      <c r="F208" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="G208" s="31"/>
+      <c r="H208" s="31"/>
+      <c r="I208" s="31"/>
+    </row>
+    <row r="209" ht="14.25" spans="1:9">
+      <c r="A209">
+        <v>999946</v>
+      </c>
+      <c r="B209" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C209" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D209" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="E209" s="10"/>
+      <c r="F209" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G209" s="31"/>
+      <c r="H209" s="31"/>
+      <c r="I209" s="31"/>
+    </row>
+    <row r="210" ht="14.25" spans="1:9">
+      <c r="A210">
+        <v>999946</v>
+      </c>
+      <c r="B210" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C210" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D210" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="E210" s="10"/>
+      <c r="F210" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="G210" s="31"/>
+      <c r="H210" s="31"/>
+      <c r="I210" s="31"/>
+    </row>
+    <row r="211" ht="14.25" spans="1:9">
+      <c r="A211">
+        <v>999946</v>
+      </c>
+      <c r="B211" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C211" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D211" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="E211" s="10"/>
+      <c r="F211" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="G211" s="31"/>
+      <c r="H211" s="31"/>
+      <c r="I211" s="31"/>
+    </row>
+    <row r="212" ht="14.25" spans="1:9">
+      <c r="A212">
+        <v>999946</v>
+      </c>
+      <c r="B212" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C212" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D212" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="E212" s="10"/>
+      <c r="F212" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="G212" s="31"/>
+      <c r="H212" s="31"/>
+      <c r="I212" s="31"/>
+    </row>
+    <row r="213" ht="14.25" spans="1:9">
+      <c r="A213">
+        <v>999946</v>
+      </c>
+      <c r="B213" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C213" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D213" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="E213" s="10"/>
+      <c r="F213" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="G213" s="31"/>
+      <c r="H213" s="31"/>
+      <c r="I213" s="31"/>
+    </row>
+    <row r="214" ht="14.25" spans="1:9">
+      <c r="A214">
+        <v>999946</v>
+      </c>
+      <c r="B214" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C214" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D214" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="E214" s="10"/>
+      <c r="F214" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="G214" s="31"/>
+      <c r="H214" s="31"/>
+      <c r="I214" s="31"/>
+    </row>
+    <row r="215" ht="14.25" spans="1:9">
+      <c r="A215">
+        <v>999946</v>
+      </c>
+      <c r="B215" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C215" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D215" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="E215" s="10"/>
+      <c r="F215" s="19">
+        <v>584</v>
+      </c>
+      <c r="G215" s="31"/>
+      <c r="H215" s="31"/>
+      <c r="I215" s="31"/>
+    </row>
+    <row r="216" ht="14.25" spans="1:9">
+      <c r="A216">
+        <v>999946</v>
+      </c>
+      <c r="B216" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C216" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D216" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="E216" s="10"/>
+      <c r="F216" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="G216" s="31"/>
+      <c r="H216" s="31"/>
+      <c r="I216" s="31"/>
+    </row>
+    <row r="217" ht="14.25" spans="1:9">
+      <c r="A217">
+        <v>999946</v>
+      </c>
+      <c r="B217" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C217" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D217" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="E217" s="10"/>
+      <c r="F217" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="G217" s="31"/>
+      <c r="H217" s="31"/>
+      <c r="I217" s="31"/>
+    </row>
+    <row r="218" ht="14.25" spans="1:9">
+      <c r="A218">
+        <v>999946</v>
+      </c>
+      <c r="B218" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C218" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D218" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="E218" s="10"/>
+      <c r="F218" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="G218" s="31"/>
+      <c r="H218" s="31"/>
+      <c r="I218" s="31"/>
+    </row>
+    <row r="219" ht="14.25" spans="1:9">
+      <c r="A219">
+        <v>999946</v>
+      </c>
+      <c r="B219" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C219" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D219" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="E219" s="10"/>
+      <c r="F219" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="G219" s="31"/>
+      <c r="H219" s="31"/>
+      <c r="I219" s="31"/>
+    </row>
+    <row r="220" ht="14.25" spans="1:9">
+      <c r="A220">
+        <v>999946</v>
+      </c>
+      <c r="B220" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C220" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D220" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="E220" s="10"/>
+      <c r="F220" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="G220" s="31"/>
+      <c r="H220" s="31"/>
+      <c r="I220" s="31"/>
+    </row>
+    <row r="221" ht="14.25" spans="1:9">
+      <c r="A221">
+        <v>999946</v>
+      </c>
+      <c r="B221" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C221" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D221" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="E221" s="10"/>
+      <c r="F221" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="G221" s="31"/>
+      <c r="H221" s="31"/>
+      <c r="I221" s="31"/>
+    </row>
+    <row r="222" ht="14.25" spans="1:9">
+      <c r="A222">
+        <v>999946</v>
+      </c>
+      <c r="B222" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C222" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D222" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="E222" s="10"/>
+      <c r="F222" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="G222" s="31"/>
+      <c r="H222" s="31"/>
+      <c r="I222" s="31"/>
+    </row>
+    <row r="223" ht="14.25" spans="1:9">
+      <c r="A223">
+        <v>999946</v>
+      </c>
+      <c r="B223" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C223" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D223" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="E223" s="10"/>
+      <c r="F223" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="G223" s="31"/>
+      <c r="H223" s="31"/>
+      <c r="I223" s="31"/>
+    </row>
+    <row r="224" ht="14.25" spans="1:9">
+      <c r="A224">
+        <v>999946</v>
+      </c>
+      <c r="B224" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C224" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D224" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="E224" s="10"/>
+      <c r="F224" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="G224" s="31"/>
+      <c r="H224" s="31"/>
+      <c r="I224" s="31"/>
+    </row>
+    <row r="225" ht="14.25" spans="1:9">
+      <c r="A225">
+        <v>999946</v>
+      </c>
+      <c r="B225" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C225" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D225" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="E225" s="10"/>
+      <c r="F225" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="G225" s="31"/>
+      <c r="H225" s="31"/>
+      <c r="I225" s="31"/>
+    </row>
+    <row r="226" ht="14.25" spans="1:9">
+      <c r="A226">
+        <v>999946</v>
+      </c>
+      <c r="B226" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C226" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D226" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="E226" s="10"/>
+      <c r="F226" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="G226" s="31"/>
+      <c r="H226" s="31"/>
+      <c r="I226" s="31"/>
+    </row>
+    <row r="227" ht="14.25" spans="1:9">
+      <c r="A227">
+        <v>999946</v>
+      </c>
+      <c r="B227" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C227" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D227" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="E227" s="10"/>
+      <c r="F227" s="21">
+        <v>578</v>
+      </c>
+      <c r="G227" s="31"/>
+      <c r="H227" s="31"/>
+      <c r="I227" s="31"/>
+    </row>
+    <row r="228" ht="14.25" spans="1:9">
+      <c r="A228">
+        <v>999946</v>
+      </c>
+      <c r="B228" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C228" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D228" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="E228" s="10"/>
+      <c r="F228" s="21">
+        <v>835</v>
+      </c>
+      <c r="G228" s="31"/>
+      <c r="H228" s="31"/>
+      <c r="I228" s="31"/>
+    </row>
+    <row r="229" ht="14.25" spans="1:9">
+      <c r="A229">
+        <v>999946</v>
+      </c>
+      <c r="B229" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C229" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D229" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="E229" s="10"/>
+      <c r="F229" s="3">
+        <v>1264</v>
+      </c>
+      <c r="G229" s="31"/>
+      <c r="H229" s="31"/>
+      <c r="I229" s="31"/>
+    </row>
+    <row r="230" ht="14.25" spans="1:9">
+      <c r="A230">
+        <v>999946</v>
+      </c>
+      <c r="B230" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C230" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D230" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="E230" s="10"/>
+      <c r="F230" s="3">
+        <v>1881</v>
+      </c>
+      <c r="G230" s="31"/>
+      <c r="H230" s="31"/>
+      <c r="I230" s="31"/>
+    </row>
+    <row r="231" ht="14.25" spans="1:9">
+      <c r="A231">
+        <v>999946</v>
+      </c>
+      <c r="B231" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C231" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D231" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="E231" s="10"/>
+      <c r="F231" s="3">
+        <v>2688</v>
+      </c>
+      <c r="G231" s="31"/>
+      <c r="H231" s="31"/>
+      <c r="I231" s="31"/>
+    </row>
+    <row r="232" ht="14.25" spans="1:9">
+      <c r="A232">
+        <v>999946</v>
+      </c>
+      <c r="B232" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C232" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D232" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="E232" s="10"/>
+      <c r="F232" s="3">
+        <v>3311</v>
+      </c>
+      <c r="G232" s="31"/>
+      <c r="H232" s="31"/>
+      <c r="I232" s="31"/>
+    </row>
+    <row r="233" ht="14.25" spans="1:9">
+      <c r="A233">
+        <v>999946</v>
+      </c>
+      <c r="B233" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C233" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D233" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="E233" s="10"/>
+      <c r="F233" s="3">
+        <v>3883</v>
+      </c>
+      <c r="G233" s="31"/>
+      <c r="H233" s="31"/>
+      <c r="I233" s="31"/>
+    </row>
+    <row r="234" ht="14.25" spans="1:9">
+      <c r="A234">
+        <v>999946</v>
+      </c>
+      <c r="B234" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C234" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D234" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="E234" s="10"/>
+      <c r="F234" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="G234" s="31"/>
+      <c r="H234" s="31"/>
+      <c r="I234" s="31"/>
+    </row>
+    <row r="235" ht="14.25" spans="1:9">
+      <c r="A235">
+        <v>999946</v>
+      </c>
+      <c r="B235" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C235" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D235" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="E235" s="10"/>
+      <c r="F235" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="G235" s="31"/>
+      <c r="H235" s="31"/>
+      <c r="I235" s="31"/>
+    </row>
+    <row r="236" ht="14.25" spans="1:9">
+      <c r="A236">
+        <v>999946</v>
+      </c>
+      <c r="B236" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C236" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D236" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="E236" s="10"/>
+      <c r="F236" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="G236" s="31"/>
+      <c r="H236" s="31"/>
+      <c r="I236" s="31"/>
+    </row>
+    <row r="237" ht="14.25" spans="1:9">
+      <c r="A237">
+        <v>999946</v>
+      </c>
+      <c r="B237" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C237" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D237" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="E237" s="10"/>
+      <c r="F237" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G237" s="31"/>
+      <c r="H237" s="31"/>
+      <c r="I237" s="31"/>
+    </row>
+    <row r="238" ht="14.25" spans="1:9">
+      <c r="A238">
+        <v>999946</v>
+      </c>
+      <c r="B238" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C238" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D238" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="E238" s="10"/>
+      <c r="F238" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="G238" s="31"/>
+      <c r="H238" s="31"/>
+      <c r="I238" s="31"/>
+    </row>
+    <row r="239" ht="14.25" spans="1:9">
+      <c r="A239">
+        <v>999946</v>
+      </c>
+      <c r="B239" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C239" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D239" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="E239" s="10"/>
+      <c r="F239" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="G239" s="31"/>
+      <c r="H239" s="31"/>
+      <c r="I239" s="31"/>
+    </row>
+    <row r="240" ht="14.25" spans="1:9">
+      <c r="A240">
+        <v>999946</v>
+      </c>
+      <c r="B240" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C240" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D240" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E240" s="10"/>
+      <c r="F240" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="G240" s="31"/>
+      <c r="H240" s="31"/>
+      <c r="I240" s="31"/>
+    </row>
+    <row r="241" ht="14.25" spans="1:9">
+      <c r="A241">
+        <v>999946</v>
+      </c>
+      <c r="B241" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C241" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D241" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E241" s="10"/>
+      <c r="F241" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="G241" s="31"/>
+      <c r="H241" s="31"/>
+      <c r="I241" s="31"/>
+    </row>
+    <row r="242" ht="14.25" spans="1:9">
+      <c r="A242">
+        <v>999946</v>
+      </c>
+      <c r="B242" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C242" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D242" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E242" s="13"/>
+      <c r="F242" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="G242" s="31"/>
+      <c r="H242" s="31"/>
+      <c r="I242" s="31"/>
+    </row>
+    <row r="243" ht="14.25" spans="1:9">
+      <c r="A243">
+        <v>999946</v>
+      </c>
+      <c r="B243" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C243" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D243" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="E243" s="13"/>
+      <c r="F243" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="G243" s="31"/>
+      <c r="H243" s="31"/>
+      <c r="I243" s="31"/>
+    </row>
+    <row r="244" ht="14.25" spans="1:9">
+      <c r="A244">
+        <v>999946</v>
+      </c>
+      <c r="B244" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C244" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D244" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="E244" s="13"/>
+      <c r="F244" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="G244" s="31"/>
+      <c r="H244" s="31"/>
+      <c r="I244" s="31"/>
+    </row>
+    <row r="245" ht="14.25" spans="1:9">
+      <c r="A245">
+        <v>999946</v>
+      </c>
+      <c r="B245" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C245" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D245" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="E245" s="13"/>
+      <c r="F245" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="G245" s="31"/>
+      <c r="H245" s="31"/>
+      <c r="I245" s="31"/>
+    </row>
+    <row r="246" ht="14.25" spans="1:9">
+      <c r="A246">
+        <v>999946</v>
+      </c>
+      <c r="B246" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C246" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D246" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="E246" s="13"/>
+      <c r="F246" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="G246" s="31"/>
+      <c r="H246" s="31"/>
+      <c r="I246" s="31"/>
+    </row>
+    <row r="247" ht="14.25" spans="1:9">
+      <c r="A247">
+        <v>999946</v>
+      </c>
+      <c r="B247" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C247" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D247" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="E247" s="13"/>
+      <c r="F247" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="G247" s="31"/>
+      <c r="H247" s="31"/>
+      <c r="I247" s="31"/>
+    </row>
+    <row r="248" ht="14.25" spans="1:9">
+      <c r="A248">
+        <v>999946</v>
+      </c>
+      <c r="B248" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C248" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D248" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="E248" s="13"/>
+      <c r="F248" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="G248" s="31"/>
+      <c r="H248" s="31"/>
+      <c r="I248" s="31"/>
+    </row>
+    <row r="249" ht="14.25" spans="1:9">
+      <c r="A249">
+        <v>999946</v>
+      </c>
+      <c r="B249" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C249" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D249" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E249" s="13"/>
+      <c r="F249" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="G249" s="31"/>
+      <c r="H249" s="31"/>
+      <c r="I249" s="31"/>
+    </row>
+    <row r="250" ht="14.25" spans="1:9">
+      <c r="A250">
+        <v>999946</v>
+      </c>
+      <c r="B250" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C250" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D250" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="E250" s="13"/>
+      <c r="F250" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="G250" s="31"/>
+      <c r="H250" s="31"/>
+      <c r="I250" s="31"/>
+    </row>
+    <row r="251" ht="14.25" spans="1:9">
+      <c r="A251">
+        <v>999946</v>
+      </c>
+      <c r="B251" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C251" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D251" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E251" s="13"/>
+      <c r="F251" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="G251" s="31"/>
+      <c r="H251" s="31"/>
+      <c r="I251" s="31"/>
+    </row>
+    <row r="252" ht="14.25" spans="1:9">
+      <c r="A252">
+        <v>999946</v>
+      </c>
+      <c r="B252" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C252" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D252" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="E252" s="13"/>
+      <c r="F252" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="G252" s="31"/>
+      <c r="H252" s="31"/>
+      <c r="I252" s="31"/>
+    </row>
+    <row r="253" ht="14.25" spans="1:9">
+      <c r="A253">
+        <v>999946</v>
+      </c>
+      <c r="B253" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C253" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D253" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="E253" s="13"/>
+      <c r="F253" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="G253" s="31"/>
+      <c r="H253" s="31"/>
+      <c r="I253" s="31"/>
+    </row>
+    <row r="254" ht="14.25" spans="1:9">
+      <c r="A254">
+        <v>999946</v>
+      </c>
+      <c r="B254" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C254" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D254" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="E254" s="13"/>
+      <c r="F254" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="G254" s="31"/>
+      <c r="H254" s="31"/>
+      <c r="I254" s="31"/>
+    </row>
+    <row r="255" ht="14.25" spans="1:9">
+      <c r="A255">
+        <v>999946</v>
+      </c>
+      <c r="B255" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C255" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D255" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="E255" s="13"/>
+      <c r="F255" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="G255" s="31"/>
+      <c r="H255" s="31"/>
+      <c r="I255" s="31"/>
+    </row>
+    <row r="256" ht="14.25" spans="1:9">
+      <c r="A256">
+        <v>999946</v>
+      </c>
+      <c r="B256" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C256" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D256" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="E256" s="13"/>
+      <c r="F256" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="G256" s="31"/>
+      <c r="H256" s="31"/>
+      <c r="I256" s="31"/>
+    </row>
+    <row r="257" ht="14.25" spans="1:9">
+      <c r="A257">
+        <v>999946</v>
+      </c>
+      <c r="B257" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C257" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D257" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="E257" s="13"/>
+      <c r="F257" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="G257" s="31"/>
+      <c r="H257" s="31"/>
+      <c r="I257" s="31"/>
+    </row>
+    <row r="258" ht="14.25" spans="1:9">
+      <c r="A258">
+        <v>999946</v>
+      </c>
+      <c r="B258" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C258" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D258" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E258" s="13"/>
+      <c r="F258" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="G258" s="31"/>
+      <c r="H258" s="31"/>
+      <c r="I258" s="31"/>
+    </row>
+    <row r="259" ht="14.25" spans="1:9">
+      <c r="A259">
+        <v>999946</v>
+      </c>
+      <c r="B259" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C259" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D259" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="E259" s="13"/>
+      <c r="F259" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="G259" s="31"/>
+      <c r="H259" s="31"/>
+      <c r="I259" s="31"/>
+    </row>
+    <row r="260" ht="14.25" spans="1:9">
+      <c r="A260">
+        <v>999946</v>
+      </c>
+      <c r="B260" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C260" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D260" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="E260" s="10"/>
+      <c r="F260" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="G260" s="31"/>
+      <c r="H260" s="31"/>
+      <c r="I260" s="31"/>
+    </row>
+    <row r="261" ht="14.25" spans="1:9">
+      <c r="A261">
+        <v>999946</v>
+      </c>
+      <c r="B261" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C261" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D261" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E261" s="10"/>
+      <c r="F261" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="G261" s="31"/>
+      <c r="H261" s="31"/>
+      <c r="I261" s="31"/>
+    </row>
+    <row r="262" ht="14.25" spans="1:9">
+      <c r="A262">
+        <v>999946</v>
+      </c>
+      <c r="B262" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C262" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D262" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="E262" s="10"/>
+      <c r="F262" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="G262" s="31"/>
+      <c r="H262" s="31"/>
+      <c r="I262" s="31"/>
+    </row>
+    <row r="263" ht="14.25" spans="1:9">
+      <c r="A263">
+        <v>999946</v>
+      </c>
+      <c r="B263" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C263" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D263" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E263" s="10"/>
+      <c r="F263" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="G263" s="31"/>
+      <c r="H263" s="31"/>
+      <c r="I263" s="31"/>
+    </row>
+    <row r="264" ht="14.25" spans="1:9">
+      <c r="A264">
+        <v>999946</v>
+      </c>
+      <c r="B264" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C264" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="D264" s="31"/>
+      <c r="E264" s="31"/>
+      <c r="F264" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="G264" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="H264" s="31">
+        <v>836</v>
+      </c>
+      <c r="I264" s="31"/>
+    </row>
+    <row r="265" ht="14.25" spans="1:9">
+      <c r="A265">
+        <v>999946</v>
+      </c>
+      <c r="B265" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C265" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="D265" s="31"/>
+      <c r="E265" s="31"/>
+      <c r="F265" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="G265" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="H265" s="31">
+        <v>1000</v>
+      </c>
+      <c r="I265" s="31"/>
+    </row>
+    <row r="266" ht="14.25" spans="1:9">
+      <c r="A266">
+        <v>999946</v>
+      </c>
+      <c r="B266" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C266" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="D266" s="10"/>
+      <c r="E266" s="10"/>
+      <c r="F266" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="G266" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="H266" s="31">
+        <v>900</v>
+      </c>
+      <c r="I266" s="31"/>
+    </row>
+    <row r="267" ht="14.25" spans="1:9">
+      <c r="A267">
+        <v>999946</v>
+      </c>
+      <c r="B267" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C267" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="D267" s="10"/>
+      <c r="E267" s="10"/>
+      <c r="F267" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="G267" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="H267" s="31">
+        <v>873</v>
+      </c>
+      <c r="I267" s="31"/>
+    </row>
+    <row r="268" ht="14.25" spans="1:9">
+      <c r="A268">
+        <v>999946</v>
+      </c>
+      <c r="B268" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C268" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="D268" s="10"/>
+      <c r="E268" s="10"/>
+      <c r="F268" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="G268" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="H268" s="31">
+        <v>600</v>
+      </c>
+      <c r="I268" s="31"/>
+    </row>
+    <row r="269" ht="14.25" spans="1:9">
+      <c r="A269">
+        <v>999946</v>
+      </c>
+      <c r="B269" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C269" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="D269" s="10"/>
+      <c r="E269" s="10"/>
+      <c r="F269" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="G269" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="H269" s="31">
+        <v>734</v>
+      </c>
+      <c r="I269" s="31"/>
+    </row>
+    <row r="270" ht="14.25" spans="1:9">
+      <c r="A270">
+        <v>999946</v>
+      </c>
+      <c r="B270" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C270" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="D270" s="31"/>
+      <c r="E270" s="31"/>
+      <c r="F270" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="G270" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="H270" s="31">
+        <v>636</v>
+      </c>
+      <c r="I270" s="31"/>
+    </row>
+    <row r="271" ht="14.25" spans="1:9">
+      <c r="A271">
+        <v>999946</v>
+      </c>
+      <c r="B271" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C271" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D271" s="10"/>
+      <c r="E271" s="10"/>
+      <c r="F271" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="G271" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="H271" s="23">
+        <v>43028.375</v>
+      </c>
+      <c r="I271" s="35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="272" ht="14.25" spans="1:9">
+      <c r="A272">
+        <v>999946</v>
+      </c>
+      <c r="B272" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C272" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D272" s="10"/>
+      <c r="E272" s="10"/>
+      <c r="F272" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="G272" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="H272" s="23">
+        <v>43035.375</v>
+      </c>
+      <c r="I272" s="35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="273" ht="14.25" spans="1:9">
+      <c r="A273">
+        <v>999946</v>
+      </c>
+      <c r="B273" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C273" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D273" s="10"/>
+      <c r="E273" s="10"/>
+      <c r="F273" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="G273" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="H273" s="34">
+        <v>43059.4375</v>
+      </c>
+      <c r="I273" s="31">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="274" ht="14.25" spans="1:9">
+      <c r="A274">
+        <v>999946</v>
+      </c>
+      <c r="B274" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C274" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D274" s="10"/>
+      <c r="E274" s="10"/>
+      <c r="F274" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="G274" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="H274" s="34">
+        <v>43062.4375</v>
+      </c>
+      <c r="I274" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="275" ht="14.25" spans="1:9">
+      <c r="A275">
+        <v>999946</v>
+      </c>
+      <c r="B275" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C275" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D275" s="10"/>
+      <c r="E275" s="10"/>
+      <c r="F275" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="G275" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="H275" s="34">
+        <v>43064.4375</v>
+      </c>
+      <c r="I275" s="31">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="276" ht="14.25" spans="1:9">
+      <c r="A276">
+        <v>999946</v>
+      </c>
+      <c r="B276" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C276" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D276" s="10"/>
+      <c r="E276" s="10"/>
+      <c r="F276" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="G276" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="H276" s="34">
+        <v>43066.4375</v>
+      </c>
+      <c r="I276" s="31">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="277" ht="14.25" spans="1:9">
+      <c r="A277">
+        <v>999946</v>
+      </c>
+      <c r="B277" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C277" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D277" s="10"/>
+      <c r="E277" s="10"/>
+      <c r="F277" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="G277" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="H277" s="34">
+        <v>43069.4375</v>
+      </c>
+      <c r="I277" s="31">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="278" ht="14.25" spans="1:9">
+      <c r="A278">
+        <v>999946</v>
+      </c>
+      <c r="B278" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C278" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D278" s="10"/>
+      <c r="E278" s="10"/>
+      <c r="F278" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="G278" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="H278" s="34">
+        <v>43070.4375</v>
+      </c>
+      <c r="I278" s="31">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="279" ht="14.25" spans="1:9">
+      <c r="A279">
+        <v>999946</v>
+      </c>
+      <c r="B279" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C279" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D279" s="10"/>
+      <c r="E279" s="10"/>
+      <c r="F279" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="G279" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="H279" s="34">
+        <v>43074.4375</v>
+      </c>
+      <c r="I279" s="31">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="280" ht="14.25" spans="1:9">
+      <c r="A280">
+        <v>999946</v>
+      </c>
+      <c r="B280" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C280" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="D280" s="10"/>
+      <c r="E280" s="10"/>
+      <c r="F280" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="G280" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="H280" s="23">
+        <v>43031.7708333333</v>
+      </c>
+      <c r="I280" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="281" ht="14.25" spans="1:9">
+      <c r="A281">
+        <v>999946</v>
+      </c>
+      <c r="B281" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C281" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="D281" s="10"/>
+      <c r="E281" s="10"/>
+      <c r="F281" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="G281" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="H281" s="23">
+        <v>43038.5625</v>
+      </c>
+      <c r="I281" s="3">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="282" ht="14.25" spans="1:9">
+      <c r="A282">
+        <v>999946</v>
+      </c>
+      <c r="B282" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C282" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="D282" s="10"/>
+      <c r="E282" s="10"/>
+      <c r="F282" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="G282" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="H282" s="23">
+        <v>43049.3958333333</v>
+      </c>
+      <c r="I282" s="3">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="283" ht="14.25" spans="1:9">
+      <c r="A283">
+        <v>999946</v>
+      </c>
+      <c r="B283" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C283" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="D283" s="10"/>
+      <c r="E283" s="10"/>
+      <c r="F283" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="G283" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="H283" s="23">
+        <v>43059.7708333333</v>
+      </c>
+      <c r="I283" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="284" ht="14.25" spans="1:9">
+      <c r="A284">
+        <v>999946</v>
+      </c>
+      <c r="B284" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C284" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="D284" s="10"/>
+      <c r="E284" s="10"/>
+      <c r="F284" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="G284" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="H284" s="23">
+        <v>43062.4375</v>
+      </c>
+      <c r="I284" s="3">
+        <v>3721</v>
+      </c>
+    </row>
+    <row r="285" ht="14.25" spans="1:9">
+      <c r="A285">
+        <v>999946</v>
+      </c>
+      <c r="B285" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C285" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="D285" s="10"/>
+      <c r="E285" s="10"/>
+      <c r="F285" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="G285" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="H285" s="23">
+        <v>43069.5208333333</v>
+      </c>
+      <c r="I285" s="3">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="286" ht="14.25" spans="1:9">
+      <c r="A286">
+        <v>999946</v>
+      </c>
+      <c r="B286" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C286" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="D286" s="10"/>
+      <c r="E286" s="10"/>
+      <c r="F286" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="G286" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="H286" s="23">
+        <v>43074.5625</v>
+      </c>
+      <c r="I286" s="3">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="287" ht="14.25" spans="1:9">
+      <c r="A287">
+        <v>999946</v>
+      </c>
+      <c r="B287" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C287" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="D287" s="10"/>
+      <c r="E287" s="10"/>
+      <c r="F287" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="G287" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="H287" s="23">
+        <v>43081.4375</v>
+      </c>
+      <c r="I287" s="3">
+        <v>1832</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -10253,10 +13554,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L118"/>
+  <dimension ref="A1:L172"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D98" sqref="D98"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A119" sqref="A119:A172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13215,6 +16516,1217 @@
         <v>456</v>
       </c>
     </row>
+    <row r="119" spans="1:9">
+      <c r="A119">
+        <v>999946</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E119" s="3"/>
+      <c r="F119" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="G119" s="3"/>
+      <c r="H119" s="3"/>
+      <c r="I119" s="3"/>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120">
+        <v>999946</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E120" s="2"/>
+      <c r="F120" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="G120" s="3"/>
+      <c r="H120" s="3"/>
+      <c r="I120" s="3"/>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121">
+        <v>999946</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E121" s="2"/>
+      <c r="F121" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="G121" s="3"/>
+      <c r="H121" s="3"/>
+      <c r="I121" s="3"/>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122">
+        <v>999946</v>
+      </c>
+      <c r="B122" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E122" s="2"/>
+      <c r="F122" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="G122" s="3"/>
+      <c r="H122" s="3"/>
+      <c r="I122" s="3"/>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123">
+        <v>999946</v>
+      </c>
+      <c r="B123" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E123" s="2"/>
+      <c r="F123" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="G123" s="3"/>
+      <c r="H123" s="3"/>
+      <c r="I123" s="3"/>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124">
+        <v>999946</v>
+      </c>
+      <c r="B124" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E124" s="2"/>
+      <c r="F124" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="G124" s="3"/>
+      <c r="H124" s="3"/>
+      <c r="I124" s="3"/>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125">
+        <v>999946</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E125" s="2"/>
+      <c r="F125" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="G125" s="3"/>
+      <c r="H125" s="3"/>
+      <c r="I125" s="3"/>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126">
+        <v>999946</v>
+      </c>
+      <c r="B126" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E126" s="2"/>
+      <c r="F126" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="G126" s="3"/>
+      <c r="H126" s="3"/>
+      <c r="I126" s="3"/>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127">
+        <v>999946</v>
+      </c>
+      <c r="B127" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D127" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="E127" s="2"/>
+      <c r="F127" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="G127" s="3"/>
+      <c r="H127" s="3"/>
+      <c r="I127" s="3"/>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128">
+        <v>999946</v>
+      </c>
+      <c r="B128" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C128" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="D128" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="F128" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="G128" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="H128" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="I128" s="3"/>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129">
+        <v>999946</v>
+      </c>
+      <c r="B129" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C129" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="D129" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="F129" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="G129" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="H129" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="I129" s="3"/>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130">
+        <v>999946</v>
+      </c>
+      <c r="B130" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C130" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="D130" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="F130" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="G130" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="H130" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="I130" s="3"/>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131">
+        <v>999946</v>
+      </c>
+      <c r="B131" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C131" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="D131" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="F131" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="G131" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="H131" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="I131" s="3"/>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132">
+        <v>999946</v>
+      </c>
+      <c r="B132" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C132" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="D132" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="F132" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="G132" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="H132" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="I132" s="3"/>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133">
+        <v>999946</v>
+      </c>
+      <c r="B133" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C133" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="D133" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="F133" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="G133" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="H133" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="I133" s="3"/>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134">
+        <v>999946</v>
+      </c>
+      <c r="B134" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C134" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="D134" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="F134" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="G134" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="H134" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="I134" s="3"/>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135">
+        <v>999946</v>
+      </c>
+      <c r="B135" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C135" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="D135" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="F135" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="G135" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="H135" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="I135" s="3"/>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136">
+        <v>999946</v>
+      </c>
+      <c r="B136" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C136" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="D136" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="F136" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="G136" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="H136" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="I136" s="3"/>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137">
+        <v>999946</v>
+      </c>
+      <c r="B137" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C137" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="D137" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="F137" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="G137" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="H137" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="I137" s="3"/>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138">
+        <v>999946</v>
+      </c>
+      <c r="B138" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C138" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="D138" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="F138" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="G138" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="H138" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="I138" s="3"/>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139">
+        <v>999946</v>
+      </c>
+      <c r="B139" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C139" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="D139" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="F139" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="G139" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="H139" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="I139" s="3"/>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140">
+        <v>999946</v>
+      </c>
+      <c r="B140" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C140" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="D140" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="E140" s="2"/>
+      <c r="F140" s="25">
+        <v>70</v>
+      </c>
+      <c r="G140" s="3"/>
+      <c r="H140" s="3"/>
+      <c r="I140" s="3"/>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141">
+        <v>999946</v>
+      </c>
+      <c r="B141" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C141" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="D141" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="E141" s="2"/>
+      <c r="F141" s="25">
+        <v>80</v>
+      </c>
+      <c r="G141" s="3"/>
+      <c r="H141" s="3"/>
+      <c r="I141" s="3"/>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142">
+        <v>999946</v>
+      </c>
+      <c r="B142" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C142" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="D142" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="E142" s="2"/>
+      <c r="F142" s="25">
+        <v>82</v>
+      </c>
+      <c r="G142" s="3"/>
+      <c r="H142" s="3"/>
+      <c r="I142" s="3"/>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143">
+        <v>999946</v>
+      </c>
+      <c r="B143" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C143" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="D143" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="E143" s="2"/>
+      <c r="F143" s="25">
+        <v>79</v>
+      </c>
+      <c r="G143" s="3"/>
+      <c r="H143" s="3"/>
+      <c r="I143" s="3"/>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144">
+        <v>999946</v>
+      </c>
+      <c r="B144" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C144" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="D144" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="E144" s="2"/>
+      <c r="F144" s="25">
+        <v>67</v>
+      </c>
+      <c r="G144" s="3"/>
+      <c r="H144" s="3"/>
+      <c r="I144" s="3"/>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145">
+        <v>999946</v>
+      </c>
+      <c r="B145" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C145" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="D145" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="E145" s="2"/>
+      <c r="F145" s="25">
+        <v>71</v>
+      </c>
+      <c r="G145" s="3"/>
+      <c r="H145" s="3"/>
+      <c r="I145" s="3"/>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146">
+        <v>999946</v>
+      </c>
+      <c r="B146" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C146" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="D146" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="E146" s="2"/>
+      <c r="F146" s="25">
+        <v>74</v>
+      </c>
+      <c r="G146" s="3"/>
+      <c r="H146" s="3"/>
+      <c r="I146" s="3"/>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147">
+        <v>999946</v>
+      </c>
+      <c r="B147" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C147" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="D147" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="E147" s="2"/>
+      <c r="F147" s="25">
+        <v>28</v>
+      </c>
+      <c r="G147" s="3"/>
+      <c r="H147" s="3"/>
+      <c r="I147" s="3"/>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148">
+        <v>999946</v>
+      </c>
+      <c r="B148" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C148" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="D148" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="E148" s="2"/>
+      <c r="F148" s="25">
+        <v>17</v>
+      </c>
+      <c r="G148" s="3"/>
+      <c r="H148" s="3"/>
+      <c r="I148" s="3"/>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149">
+        <v>999946</v>
+      </c>
+      <c r="B149" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C149" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="D149" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="E149" s="2"/>
+      <c r="F149" s="25">
+        <v>35</v>
+      </c>
+      <c r="G149" s="3"/>
+      <c r="H149" s="3"/>
+      <c r="I149" s="3"/>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150">
+        <v>999946</v>
+      </c>
+      <c r="B150" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C150" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="D150" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="E150" s="2"/>
+      <c r="F150" s="25">
+        <v>20</v>
+      </c>
+      <c r="G150" s="3"/>
+      <c r="H150" s="3"/>
+      <c r="I150" s="3"/>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="A151">
+        <v>999946</v>
+      </c>
+      <c r="B151" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C151" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="D151" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="E151" s="2"/>
+      <c r="F151" s="25">
+        <v>32</v>
+      </c>
+      <c r="G151" s="3"/>
+      <c r="H151" s="3"/>
+      <c r="I151" s="3"/>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152">
+        <v>999946</v>
+      </c>
+      <c r="B152" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C152" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="D152" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="E152" s="2"/>
+      <c r="F152" s="25">
+        <v>35</v>
+      </c>
+      <c r="G152" s="3"/>
+      <c r="H152" s="3"/>
+      <c r="I152" s="3"/>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153">
+        <v>999946</v>
+      </c>
+      <c r="B153" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C153" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="D153" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="E153" s="2"/>
+      <c r="F153" s="25">
+        <v>20</v>
+      </c>
+      <c r="G153" s="3"/>
+      <c r="H153" s="3"/>
+      <c r="I153" s="3"/>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154">
+        <v>999946</v>
+      </c>
+      <c r="B154" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C154" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="D154" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="E154" s="2"/>
+      <c r="F154" s="25">
+        <v>7</v>
+      </c>
+      <c r="G154" s="3"/>
+      <c r="H154" s="3"/>
+      <c r="I154" s="3"/>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155">
+        <v>999946</v>
+      </c>
+      <c r="B155" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C155" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="D155" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="E155" s="2"/>
+      <c r="F155" s="25">
+        <v>6</v>
+      </c>
+      <c r="G155" s="3"/>
+      <c r="H155" s="3"/>
+      <c r="I155" s="3"/>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156">
+        <v>999946</v>
+      </c>
+      <c r="B156" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C156" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="D156" s="2"/>
+      <c r="F156" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="G156" s="17" t="s">
+        <v>425</v>
+      </c>
+      <c r="H156" s="17" t="s">
+        <v>426</v>
+      </c>
+      <c r="I156" s="17" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157">
+        <v>999946</v>
+      </c>
+      <c r="B157" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C157" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="D157" s="2"/>
+      <c r="F157" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="G157" s="17" t="s">
+        <v>425</v>
+      </c>
+      <c r="H157" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="I157" s="17" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158">
+        <v>999946</v>
+      </c>
+      <c r="B158" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C158" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="D158" s="2"/>
+      <c r="F158" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="G158" s="17" t="s">
+        <v>430</v>
+      </c>
+      <c r="H158" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="I158" s="17" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="A159">
+        <v>999946</v>
+      </c>
+      <c r="B159" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C159" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="D159" s="2"/>
+      <c r="F159" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="G159" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="H159" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="I159" s="17" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="A160">
+        <v>999946</v>
+      </c>
+      <c r="B160" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C160" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="D160" s="2"/>
+      <c r="F160" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="G160" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="H160" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="I160" s="17" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
+      <c r="A161">
+        <v>999946</v>
+      </c>
+      <c r="B161" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C161" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="D161" s="2"/>
+      <c r="F161" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="G161" s="17" t="s">
+        <v>434</v>
+      </c>
+      <c r="H161" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="I161" s="17" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
+      <c r="A162">
+        <v>999946</v>
+      </c>
+      <c r="B162" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C162" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="D162" s="2"/>
+      <c r="F162" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="G162" s="17" t="s">
+        <v>436</v>
+      </c>
+      <c r="H162" s="17" t="s">
+        <v>426</v>
+      </c>
+      <c r="I162" s="17" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
+      <c r="A163">
+        <v>999946</v>
+      </c>
+      <c r="B163" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C163" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="F163" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="G163" s="17" t="s">
+        <v>436</v>
+      </c>
+      <c r="H163" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="I163" s="17" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
+      <c r="A164">
+        <v>999946</v>
+      </c>
+      <c r="B164" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C164" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="F164" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="G164" s="17" t="s">
+        <v>436</v>
+      </c>
+      <c r="H164" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="I164" s="17" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
+      <c r="A165">
+        <v>999946</v>
+      </c>
+      <c r="B165" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C165" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="F165" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="G165" s="17" t="s">
+        <v>436</v>
+      </c>
+      <c r="H165" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="I165" s="17" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="A166">
+        <v>999946</v>
+      </c>
+      <c r="B166" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C166" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="F166" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="G166" s="17" t="s">
+        <v>436</v>
+      </c>
+      <c r="H166" s="17" t="s">
+        <v>426</v>
+      </c>
+      <c r="I166" s="17" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
+      <c r="A167">
+        <v>999946</v>
+      </c>
+      <c r="B167" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C167" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="F167" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="G167" s="17" t="s">
+        <v>436</v>
+      </c>
+      <c r="H167" s="17" t="s">
+        <v>426</v>
+      </c>
+      <c r="I167" s="17" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
+      <c r="A168">
+        <v>999946</v>
+      </c>
+      <c r="B168" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C168" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="F168" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="G168" s="17" t="s">
+        <v>436</v>
+      </c>
+      <c r="H168" s="17" t="s">
+        <v>426</v>
+      </c>
+      <c r="I168" s="17" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
+      <c r="A169">
+        <v>999946</v>
+      </c>
+      <c r="B169" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C169" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="F169" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="G169" s="17" t="s">
+        <v>436</v>
+      </c>
+      <c r="H169" s="17" t="s">
+        <v>426</v>
+      </c>
+      <c r="I169" s="17" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
+      <c r="A170">
+        <v>999946</v>
+      </c>
+      <c r="B170" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C170" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="F170" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="G170" s="17" t="s">
+        <v>436</v>
+      </c>
+      <c r="H170" s="17" t="s">
+        <v>426</v>
+      </c>
+      <c r="I170" s="17" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
+      <c r="A171">
+        <v>999946</v>
+      </c>
+      <c r="B171" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C171" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="F171" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="G171" s="17" t="s">
+        <v>436</v>
+      </c>
+      <c r="H171" s="17" t="s">
+        <v>426</v>
+      </c>
+      <c r="I171" s="17" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
+      <c r="A172">
+        <v>999946</v>
+      </c>
+      <c r="B172" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C172" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="F172" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="G172" s="17" t="s">
+        <v>436</v>
+      </c>
+      <c r="H172" s="17" t="s">
+        <v>426</v>
+      </c>
+      <c r="I172" s="17" t="s">
+        <v>456</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -13224,10 +17736,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L158"/>
+  <dimension ref="A1:L239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="D140" sqref="D140"/>
+    <sheetView topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="A159" sqref="A159:A239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -16657,6 +21169,1671 @@
         <v>43089.4166666667</v>
       </c>
     </row>
+    <row r="159" spans="1:8">
+      <c r="A159">
+        <v>999946</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="D159" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="F159" s="19" t="s">
+        <v>460</v>
+      </c>
+      <c r="G159" s="3"/>
+      <c r="H159" s="3"/>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160">
+        <v>999946</v>
+      </c>
+      <c r="B160" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="D160" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="F160" s="21">
+        <v>5632</v>
+      </c>
+      <c r="G160" s="3"/>
+      <c r="H160" s="3"/>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161">
+        <v>999946</v>
+      </c>
+      <c r="B161" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="D161" s="20">
+        <v>42736</v>
+      </c>
+      <c r="F161" s="3">
+        <v>541</v>
+      </c>
+      <c r="G161" s="3"/>
+      <c r="H161" s="3"/>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162">
+        <v>999946</v>
+      </c>
+      <c r="B162" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="D162" s="20">
+        <v>42767</v>
+      </c>
+      <c r="F162" s="21">
+        <v>651</v>
+      </c>
+      <c r="G162" s="3"/>
+      <c r="H162" s="3"/>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163">
+        <v>999946</v>
+      </c>
+      <c r="B163" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="D163" s="20">
+        <v>42795</v>
+      </c>
+      <c r="F163" s="21">
+        <v>763</v>
+      </c>
+      <c r="G163" s="3"/>
+      <c r="H163" s="3"/>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164">
+        <v>999946</v>
+      </c>
+      <c r="B164" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C164" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="D164" s="20">
+        <v>42826</v>
+      </c>
+      <c r="F164" s="21">
+        <v>541</v>
+      </c>
+      <c r="G164" s="3"/>
+      <c r="H164" s="3"/>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165">
+        <v>999946</v>
+      </c>
+      <c r="B165" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="D165" s="20">
+        <v>42856</v>
+      </c>
+      <c r="F165" s="21">
+        <v>735</v>
+      </c>
+      <c r="G165" s="3"/>
+      <c r="H165" s="3"/>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166">
+        <v>999946</v>
+      </c>
+      <c r="B166" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="D166" s="20">
+        <v>42887</v>
+      </c>
+      <c r="F166" s="21">
+        <v>533</v>
+      </c>
+      <c r="G166" s="3"/>
+      <c r="H166" s="3"/>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167">
+        <v>999946</v>
+      </c>
+      <c r="B167" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="D167" s="20">
+        <v>42917</v>
+      </c>
+      <c r="F167" s="21">
+        <v>875</v>
+      </c>
+      <c r="G167" s="3"/>
+      <c r="H167" s="3"/>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168">
+        <v>999946</v>
+      </c>
+      <c r="B168" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="D168" s="20">
+        <v>42948</v>
+      </c>
+      <c r="F168" s="21">
+        <v>1011</v>
+      </c>
+      <c r="G168" s="3"/>
+      <c r="H168" s="3"/>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169">
+        <v>999946</v>
+      </c>
+      <c r="B169" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C169" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="D169" s="20">
+        <v>42979</v>
+      </c>
+      <c r="F169" s="21">
+        <v>999</v>
+      </c>
+      <c r="G169" s="3"/>
+      <c r="H169" s="3"/>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="A170">
+        <v>999946</v>
+      </c>
+      <c r="B170" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C170" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="D170" s="20">
+        <v>43009</v>
+      </c>
+      <c r="F170" s="21">
+        <v>781</v>
+      </c>
+      <c r="G170" s="3"/>
+      <c r="H170" s="3"/>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="A171">
+        <v>999946</v>
+      </c>
+      <c r="B171" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C171" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="D171" s="20">
+        <v>43040</v>
+      </c>
+      <c r="F171" s="21">
+        <v>853</v>
+      </c>
+      <c r="G171" s="3"/>
+      <c r="H171" s="3"/>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="A172">
+        <v>999946</v>
+      </c>
+      <c r="B172" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C172" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="D172" s="20">
+        <v>43070</v>
+      </c>
+      <c r="F172" s="7">
+        <v>773</v>
+      </c>
+      <c r="G172" s="3"/>
+      <c r="H172" s="3"/>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="A173">
+        <v>999946</v>
+      </c>
+      <c r="B173" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="D173" s="13" t="s">
+        <v>467</v>
+      </c>
+      <c r="F173" s="19">
+        <v>773</v>
+      </c>
+      <c r="G173" s="3"/>
+      <c r="H173" s="3"/>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="A174">
+        <v>999946</v>
+      </c>
+      <c r="B174" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="D174" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F174" s="19">
+        <v>1304</v>
+      </c>
+      <c r="G174" s="3"/>
+      <c r="H174" s="3"/>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175">
+        <v>999946</v>
+      </c>
+      <c r="B175" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="D175" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F175" s="19">
+        <v>1087</v>
+      </c>
+      <c r="G175" s="3"/>
+      <c r="H175" s="3"/>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="A176">
+        <v>999946</v>
+      </c>
+      <c r="B176" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="D176" s="13" t="s">
+        <v>504</v>
+      </c>
+      <c r="F176" s="19">
+        <v>2223</v>
+      </c>
+      <c r="G176" s="3"/>
+      <c r="H176" s="3"/>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="A177">
+        <v>999946</v>
+      </c>
+      <c r="B177" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="D177" s="13" t="s">
+        <v>468</v>
+      </c>
+      <c r="F177" s="19">
+        <v>966</v>
+      </c>
+      <c r="G177" s="3"/>
+      <c r="H177" s="3"/>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="A178">
+        <v>999946</v>
+      </c>
+      <c r="B178" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="D178" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="F178" s="19">
+        <v>965</v>
+      </c>
+      <c r="G178" s="3"/>
+      <c r="H178" s="3"/>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="A179">
+        <v>999946</v>
+      </c>
+      <c r="B179" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D179" s="13" t="s">
+        <v>506</v>
+      </c>
+      <c r="F179" s="19" t="s">
+        <v>507</v>
+      </c>
+      <c r="G179" s="3"/>
+      <c r="H179" s="3"/>
+    </row>
+    <row r="180" spans="1:8">
+      <c r="A180">
+        <v>999946</v>
+      </c>
+      <c r="B180" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D180" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="F180" s="3">
+        <v>5210</v>
+      </c>
+      <c r="G180" s="3"/>
+      <c r="H180" s="3"/>
+    </row>
+    <row r="181" spans="1:8">
+      <c r="A181">
+        <v>999946</v>
+      </c>
+      <c r="B181" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D181" s="13" t="s">
+        <v>468</v>
+      </c>
+      <c r="F181" s="3">
+        <v>4333</v>
+      </c>
+      <c r="G181" s="3"/>
+      <c r="H181" s="3"/>
+    </row>
+    <row r="182" spans="1:8">
+      <c r="A182">
+        <v>999946</v>
+      </c>
+      <c r="B182" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D182" s="13" t="s">
+        <v>509</v>
+      </c>
+      <c r="F182" s="3">
+        <v>3888</v>
+      </c>
+      <c r="G182" s="3"/>
+      <c r="H182" s="3"/>
+    </row>
+    <row r="183" spans="1:8">
+      <c r="A183">
+        <v>999946</v>
+      </c>
+      <c r="B183" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D183" s="13" t="s">
+        <v>510</v>
+      </c>
+      <c r="F183" s="3">
+        <v>3770</v>
+      </c>
+      <c r="G183" s="3"/>
+      <c r="H183" s="3"/>
+    </row>
+    <row r="184" spans="1:8">
+      <c r="A184">
+        <v>999946</v>
+      </c>
+      <c r="B184" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D184" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="F184" s="3">
+        <v>3110</v>
+      </c>
+      <c r="G184" s="3"/>
+      <c r="H184" s="3"/>
+    </row>
+    <row r="185" spans="1:8">
+      <c r="A185">
+        <v>999946</v>
+      </c>
+      <c r="B185" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C185" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="D185" s="2"/>
+      <c r="F185" s="19" t="s">
+        <v>479</v>
+      </c>
+      <c r="G185" s="3"/>
+      <c r="H185" s="3"/>
+    </row>
+    <row r="186" spans="1:8">
+      <c r="A186">
+        <v>999946</v>
+      </c>
+      <c r="B186" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="D186" s="13" t="s">
+        <v>468</v>
+      </c>
+      <c r="F186" s="19">
+        <v>7.51</v>
+      </c>
+      <c r="G186" s="3"/>
+      <c r="H186" s="3"/>
+    </row>
+    <row r="187" spans="1:8">
+      <c r="A187">
+        <v>999946</v>
+      </c>
+      <c r="B187" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="D187" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F187" s="19">
+        <v>5.67</v>
+      </c>
+      <c r="G187" s="3"/>
+      <c r="H187" s="3"/>
+    </row>
+    <row r="188" spans="1:8">
+      <c r="A188">
+        <v>999946</v>
+      </c>
+      <c r="B188" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="D188" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F188" s="19">
+        <v>5.17</v>
+      </c>
+      <c r="G188" s="3"/>
+      <c r="H188" s="3"/>
+    </row>
+    <row r="189" spans="1:8">
+      <c r="A189">
+        <v>999946</v>
+      </c>
+      <c r="B189" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="D189" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="F189" s="19">
+        <v>3.12</v>
+      </c>
+      <c r="G189" s="3"/>
+      <c r="H189" s="3"/>
+    </row>
+    <row r="190" spans="1:8">
+      <c r="A190">
+        <v>999946</v>
+      </c>
+      <c r="B190" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="D190" s="13" t="s">
+        <v>504</v>
+      </c>
+      <c r="F190" s="19">
+        <v>4.22</v>
+      </c>
+      <c r="G190" s="3"/>
+      <c r="H190" s="3"/>
+    </row>
+    <row r="191" spans="1:8">
+      <c r="A191">
+        <v>999946</v>
+      </c>
+      <c r="B191" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="D191" s="13" t="s">
+        <v>510</v>
+      </c>
+      <c r="F191" s="19">
+        <v>1.12</v>
+      </c>
+      <c r="G191" s="3"/>
+      <c r="H191" s="3"/>
+    </row>
+    <row r="192" spans="1:8">
+      <c r="A192">
+        <v>999946</v>
+      </c>
+      <c r="B192" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="F192" s="3">
+        <v>753</v>
+      </c>
+      <c r="G192" s="3"/>
+      <c r="H192" s="3"/>
+    </row>
+    <row r="193" spans="1:8">
+      <c r="A193">
+        <v>999946</v>
+      </c>
+      <c r="B193" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="F193" s="3">
+        <v>875</v>
+      </c>
+      <c r="G193" s="3"/>
+      <c r="H193" s="3"/>
+    </row>
+    <row r="194" spans="1:8">
+      <c r="A194">
+        <v>999946</v>
+      </c>
+      <c r="B194" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="F194" s="3">
+        <v>712</v>
+      </c>
+      <c r="G194" s="3"/>
+      <c r="H194" s="3"/>
+    </row>
+    <row r="195" spans="1:8">
+      <c r="A195">
+        <v>999946</v>
+      </c>
+      <c r="B195" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="F195" s="3">
+        <v>850</v>
+      </c>
+      <c r="G195" s="3"/>
+      <c r="H195" s="3"/>
+    </row>
+    <row r="196" spans="1:8">
+      <c r="A196">
+        <v>999946</v>
+      </c>
+      <c r="B196" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="F196" s="3">
+        <v>513</v>
+      </c>
+      <c r="G196" s="3"/>
+      <c r="H196" s="3"/>
+    </row>
+    <row r="197" spans="1:8">
+      <c r="A197">
+        <v>999946</v>
+      </c>
+      <c r="B197" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="F197" s="3">
+        <v>471</v>
+      </c>
+      <c r="G197" s="3"/>
+      <c r="H197" s="3"/>
+    </row>
+    <row r="198" spans="1:8">
+      <c r="A198">
+        <v>999946</v>
+      </c>
+      <c r="B198" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="F198" s="3">
+        <v>633</v>
+      </c>
+      <c r="G198" s="3"/>
+      <c r="H198" s="3"/>
+    </row>
+    <row r="199" spans="1:8">
+      <c r="A199">
+        <v>999946</v>
+      </c>
+      <c r="B199" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D199" s="19" t="s">
+        <v>465</v>
+      </c>
+      <c r="E199" s="16" t="s">
+        <v>485</v>
+      </c>
+      <c r="F199" s="3">
+        <v>875</v>
+      </c>
+      <c r="G199" s="3"/>
+      <c r="H199" s="3"/>
+    </row>
+    <row r="200" spans="1:8">
+      <c r="A200">
+        <v>999946</v>
+      </c>
+      <c r="B200" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D200" s="19" t="s">
+        <v>482</v>
+      </c>
+      <c r="E200" s="16" t="s">
+        <v>485</v>
+      </c>
+      <c r="F200" s="3">
+        <v>712</v>
+      </c>
+      <c r="G200" s="3"/>
+      <c r="H200" s="3"/>
+    </row>
+    <row r="201" spans="1:8">
+      <c r="A201">
+        <v>999946</v>
+      </c>
+      <c r="B201" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D201" s="19" t="s">
+        <v>474</v>
+      </c>
+      <c r="E201" s="16" t="s">
+        <v>485</v>
+      </c>
+      <c r="F201" s="3">
+        <v>850</v>
+      </c>
+      <c r="G201" s="3"/>
+      <c r="H201" s="3"/>
+    </row>
+    <row r="202" spans="1:8">
+      <c r="A202">
+        <v>999946</v>
+      </c>
+      <c r="B202" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D202" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="F202" s="3">
+        <v>323</v>
+      </c>
+      <c r="G202" s="3"/>
+      <c r="H202" s="3"/>
+    </row>
+    <row r="203" spans="1:8">
+      <c r="A203">
+        <v>999946</v>
+      </c>
+      <c r="B203" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="F203" s="3">
+        <v>299</v>
+      </c>
+      <c r="G203" s="3"/>
+      <c r="H203" s="3"/>
+    </row>
+    <row r="204" spans="1:8">
+      <c r="A204">
+        <v>999946</v>
+      </c>
+      <c r="B204" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D204" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="F204" s="3">
+        <v>372</v>
+      </c>
+      <c r="G204" s="3"/>
+      <c r="H204" s="3"/>
+    </row>
+    <row r="205" spans="1:8">
+      <c r="A205">
+        <v>999946</v>
+      </c>
+      <c r="B205" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D205" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="F205" s="3">
+        <v>431</v>
+      </c>
+      <c r="G205" s="3"/>
+      <c r="H205" s="3"/>
+    </row>
+    <row r="206" spans="1:8">
+      <c r="A206">
+        <v>999946</v>
+      </c>
+      <c r="B206" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D206" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="F206" s="3">
+        <v>244</v>
+      </c>
+      <c r="G206" s="3"/>
+      <c r="H206" s="3"/>
+    </row>
+    <row r="207" spans="1:8">
+      <c r="A207">
+        <v>999946</v>
+      </c>
+      <c r="B207" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="F207" s="3">
+        <v>211</v>
+      </c>
+      <c r="G207" s="3"/>
+      <c r="H207" s="3"/>
+    </row>
+    <row r="208" spans="1:8">
+      <c r="A208">
+        <v>999946</v>
+      </c>
+      <c r="B208" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="F208" s="3">
+        <v>318</v>
+      </c>
+      <c r="G208" s="3"/>
+      <c r="H208" s="3"/>
+    </row>
+    <row r="209" spans="1:8">
+      <c r="A209">
+        <v>999946</v>
+      </c>
+      <c r="B209" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D209" s="19" t="s">
+        <v>465</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="F209" s="3">
+        <v>299</v>
+      </c>
+      <c r="G209" s="3"/>
+      <c r="H209" s="3"/>
+    </row>
+    <row r="210" spans="1:8">
+      <c r="A210">
+        <v>999946</v>
+      </c>
+      <c r="B210" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D210" s="19" t="s">
+        <v>482</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="F210" s="3">
+        <v>372</v>
+      </c>
+      <c r="G210" s="3"/>
+      <c r="H210" s="3"/>
+    </row>
+    <row r="211" spans="1:8">
+      <c r="A211">
+        <v>999946</v>
+      </c>
+      <c r="B211" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D211" s="19" t="s">
+        <v>474</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="F211" s="3">
+        <v>431</v>
+      </c>
+      <c r="G211" s="3"/>
+      <c r="H211" s="3"/>
+    </row>
+    <row r="212" spans="1:8">
+      <c r="A212">
+        <v>999946</v>
+      </c>
+      <c r="B212" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="F212" s="3">
+        <v>157</v>
+      </c>
+      <c r="G212" s="3"/>
+      <c r="H212" s="3"/>
+    </row>
+    <row r="213" spans="1:8">
+      <c r="A213">
+        <v>999946</v>
+      </c>
+      <c r="B213" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D213" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="F213" s="3">
+        <v>181</v>
+      </c>
+      <c r="G213" s="3"/>
+      <c r="H213" s="3"/>
+    </row>
+    <row r="214" spans="1:8">
+      <c r="A214">
+        <v>999946</v>
+      </c>
+      <c r="B214" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D214" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="F214" s="3">
+        <v>173</v>
+      </c>
+      <c r="G214" s="3"/>
+      <c r="H214" s="3"/>
+    </row>
+    <row r="215" spans="1:8">
+      <c r="A215">
+        <v>999946</v>
+      </c>
+      <c r="B215" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D215" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="F215" s="3">
+        <v>232</v>
+      </c>
+      <c r="G215" s="3"/>
+      <c r="H215" s="3"/>
+    </row>
+    <row r="216" spans="1:8">
+      <c r="A216">
+        <v>999946</v>
+      </c>
+      <c r="B216" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D216" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="F216" s="3">
+        <v>171</v>
+      </c>
+      <c r="G216" s="3"/>
+      <c r="H216" s="3"/>
+    </row>
+    <row r="217" spans="1:8">
+      <c r="A217">
+        <v>999946</v>
+      </c>
+      <c r="B217" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D217" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="F217" s="3">
+        <v>151</v>
+      </c>
+      <c r="G217" s="3"/>
+      <c r="H217" s="3"/>
+    </row>
+    <row r="218" spans="1:8">
+      <c r="A218">
+        <v>999946</v>
+      </c>
+      <c r="B218" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D218" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="F218" s="3">
+        <v>213</v>
+      </c>
+      <c r="G218" s="3"/>
+      <c r="H218" s="3"/>
+    </row>
+    <row r="219" spans="1:8">
+      <c r="A219">
+        <v>999946</v>
+      </c>
+      <c r="B219" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D219" s="19" t="s">
+        <v>465</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="F219" s="3">
+        <v>181</v>
+      </c>
+      <c r="G219" s="3"/>
+      <c r="H219" s="3"/>
+    </row>
+    <row r="220" spans="1:8">
+      <c r="A220">
+        <v>999946</v>
+      </c>
+      <c r="B220" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D220" s="19" t="s">
+        <v>482</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="F220" s="3">
+        <v>173</v>
+      </c>
+      <c r="G220" s="3"/>
+      <c r="H220" s="3"/>
+    </row>
+    <row r="221" spans="1:8">
+      <c r="A221">
+        <v>999946</v>
+      </c>
+      <c r="B221" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D221" s="19" t="s">
+        <v>474</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="F221" s="3">
+        <v>232</v>
+      </c>
+      <c r="G221" s="3"/>
+      <c r="H221" s="3"/>
+    </row>
+    <row r="222" spans="1:8">
+      <c r="A222">
+        <v>999946</v>
+      </c>
+      <c r="B222" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="D222" s="2"/>
+      <c r="E222" s="2"/>
+      <c r="F222" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="G222" s="25" t="s">
+        <v>514</v>
+      </c>
+      <c r="H222" s="23">
+        <v>43059.6458333333</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8">
+      <c r="A223">
+        <v>999946</v>
+      </c>
+      <c r="B223" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="D223" s="2"/>
+      <c r="E223" s="2"/>
+      <c r="F223" s="25" t="s">
+        <v>468</v>
+      </c>
+      <c r="G223" s="25" t="s">
+        <v>515</v>
+      </c>
+      <c r="H223" s="23">
+        <v>43038.7291666667</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8">
+      <c r="A224">
+        <v>999946</v>
+      </c>
+      <c r="B224" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="D224" s="2"/>
+      <c r="E224" s="2"/>
+      <c r="F224" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="G224" s="25" t="s">
+        <v>516</v>
+      </c>
+      <c r="H224" s="23">
+        <v>43049.7708333333</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8">
+      <c r="A225">
+        <v>999946</v>
+      </c>
+      <c r="B225" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="D225" s="2"/>
+      <c r="E225" s="2"/>
+      <c r="F225" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="G225" s="25" t="s">
+        <v>517</v>
+      </c>
+      <c r="H225" s="23">
+        <v>43052.7291666667</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
+      <c r="A226">
+        <v>999946</v>
+      </c>
+      <c r="B226" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="D226" s="2"/>
+      <c r="E226" s="2"/>
+      <c r="F226" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="G226" s="25" t="s">
+        <v>518</v>
+      </c>
+      <c r="H226" s="23">
+        <v>43038.4375</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8">
+      <c r="A227">
+        <v>999946</v>
+      </c>
+      <c r="B227" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="D227" s="2"/>
+      <c r="E227" s="2"/>
+      <c r="F227" s="25" t="s">
+        <v>519</v>
+      </c>
+      <c r="G227" s="25" t="s">
+        <v>520</v>
+      </c>
+      <c r="H227" s="23">
+        <v>43056.3958333333</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8">
+      <c r="A228">
+        <v>999946</v>
+      </c>
+      <c r="B228" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="D228" s="2"/>
+      <c r="E228" s="2"/>
+      <c r="F228" s="25" t="s">
+        <v>468</v>
+      </c>
+      <c r="G228" s="25" t="s">
+        <v>521</v>
+      </c>
+      <c r="H228" s="23">
+        <v>43062.7708333333</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8">
+      <c r="A229">
+        <v>999946</v>
+      </c>
+      <c r="B229" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="D229" s="2"/>
+      <c r="E229" s="2"/>
+      <c r="F229" s="25" t="s">
+        <v>522</v>
+      </c>
+      <c r="G229" s="25" t="s">
+        <v>523</v>
+      </c>
+      <c r="H229" s="23">
+        <v>43070.5833333333</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8">
+      <c r="A230">
+        <v>999946</v>
+      </c>
+      <c r="B230" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="D230" s="2"/>
+      <c r="E230" s="2"/>
+      <c r="F230" s="25" t="s">
+        <v>524</v>
+      </c>
+      <c r="G230" s="25" t="s">
+        <v>525</v>
+      </c>
+      <c r="H230" s="23">
+        <v>43074.7243055556</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8">
+      <c r="A231">
+        <v>999946</v>
+      </c>
+      <c r="B231" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="D231" s="2"/>
+      <c r="E231" s="2"/>
+      <c r="F231" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="G231" s="25" t="s">
+        <v>526</v>
+      </c>
+      <c r="H231" s="23">
+        <v>43081.4166666667</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8">
+      <c r="A232">
+        <v>999946</v>
+      </c>
+      <c r="B232" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="F232" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="G232" s="25" t="s">
+        <v>527</v>
+      </c>
+      <c r="H232" s="23">
+        <v>43082.4166666667</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8">
+      <c r="A233">
+        <v>999946</v>
+      </c>
+      <c r="B233" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="F233" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="G233" s="25" t="s">
+        <v>528</v>
+      </c>
+      <c r="H233" s="23">
+        <v>43083.4166666667</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8">
+      <c r="A234">
+        <v>999946</v>
+      </c>
+      <c r="B234" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="F234" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="G234" s="25" t="s">
+        <v>529</v>
+      </c>
+      <c r="H234" s="23">
+        <v>43084.4166666667</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8">
+      <c r="A235">
+        <v>999946</v>
+      </c>
+      <c r="B235" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="F235" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="G235" s="25" t="s">
+        <v>530</v>
+      </c>
+      <c r="H235" s="23">
+        <v>43085.4166666667</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8">
+      <c r="A236">
+        <v>999946</v>
+      </c>
+      <c r="B236" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="F236" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="G236" s="25" t="s">
+        <v>531</v>
+      </c>
+      <c r="H236" s="23">
+        <v>43086.4166666667</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8">
+      <c r="A237">
+        <v>999946</v>
+      </c>
+      <c r="B237" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="F237" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="G237" s="25" t="s">
+        <v>532</v>
+      </c>
+      <c r="H237" s="23">
+        <v>43087.4166666667</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8">
+      <c r="A238">
+        <v>999946</v>
+      </c>
+      <c r="B238" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="F238" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="G238" s="25" t="s">
+        <v>533</v>
+      </c>
+      <c r="H238" s="23">
+        <v>43088.4166666667</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8">
+      <c r="A239">
+        <v>999946</v>
+      </c>
+      <c r="B239" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="F239" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="G239" s="25" t="s">
+        <v>534</v>
+      </c>
+      <c r="H239" s="23">
+        <v>43089.4166666667</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -16666,10 +22843,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K126"/>
+  <dimension ref="A1:K188"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F115" sqref="F115"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="H127" sqref="H127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -19120,6 +25297,1213 @@
         <v>149054</v>
       </c>
     </row>
+    <row r="127" spans="1:7">
+      <c r="A127">
+        <v>999946</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="D127" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="E127" s="7"/>
+      <c r="F127" s="3">
+        <v>2362798</v>
+      </c>
+      <c r="G127" s="3"/>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128">
+        <v>999946</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="D128" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="E128" s="7"/>
+      <c r="F128" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="G128" s="3"/>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129">
+        <v>999946</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="D129" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="E129" s="7"/>
+      <c r="F129" s="3">
+        <v>123420</v>
+      </c>
+      <c r="G129" s="3"/>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130">
+        <v>999946</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="D130" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="E130" s="7"/>
+      <c r="F130" s="8">
+        <v>0.03</v>
+      </c>
+      <c r="G130" s="3"/>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131">
+        <v>999946</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="D131" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="E131" s="7"/>
+      <c r="F131" s="9">
+        <v>12222098</v>
+      </c>
+      <c r="G131" s="3"/>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132">
+        <v>999946</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="D132" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="E132" s="7"/>
+      <c r="F132" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="G132" s="3"/>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133">
+        <v>999946</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C133" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="D133" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="E133" s="7"/>
+      <c r="F133" s="11">
+        <v>3212</v>
+      </c>
+      <c r="G133" s="3"/>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134">
+        <v>999946</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C134" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="D134" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="E134" s="7"/>
+      <c r="F134" s="11">
+        <v>3467</v>
+      </c>
+      <c r="G134" s="3"/>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135">
+        <v>999946</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C135" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="D135" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="E135" s="7"/>
+      <c r="F135" s="11">
+        <v>2532</v>
+      </c>
+      <c r="G135" s="3"/>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136">
+        <v>999946</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C136" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="D136" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="E136" s="7"/>
+      <c r="F136" s="11">
+        <v>1870</v>
+      </c>
+      <c r="G136" s="3"/>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137">
+        <v>999946</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C137" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="D137" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="E137" s="7"/>
+      <c r="F137" s="11">
+        <v>2605</v>
+      </c>
+      <c r="G137" s="3"/>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138">
+        <v>999946</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C138" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="D138" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="E138" s="11"/>
+      <c r="F138" s="11">
+        <v>3648</v>
+      </c>
+      <c r="G138" s="3"/>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139">
+        <v>999946</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C139" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="D139" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="E139" s="11"/>
+      <c r="F139" s="11">
+        <v>5590</v>
+      </c>
+      <c r="G139" s="3"/>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140">
+        <v>999946</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C140" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="D140" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="E140" s="11"/>
+      <c r="F140" s="11">
+        <v>4115</v>
+      </c>
+      <c r="G140" s="3"/>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141">
+        <v>999946</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C141" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="D141" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="E141" s="11"/>
+      <c r="F141" s="11">
+        <v>4759</v>
+      </c>
+      <c r="G141" s="3"/>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142">
+        <v>999946</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C142" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="D142" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="E142" s="11"/>
+      <c r="F142" s="11">
+        <v>768</v>
+      </c>
+      <c r="G142" s="3"/>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143">
+        <v>999946</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C143" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="D143" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="E143" s="11"/>
+      <c r="F143" s="11">
+        <v>1000</v>
+      </c>
+      <c r="G143" s="3"/>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144">
+        <v>999946</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C144" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="D144" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="E144" s="11"/>
+      <c r="F144" s="11">
+        <v>2314</v>
+      </c>
+      <c r="G144" s="3"/>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145">
+        <v>999946</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C145" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="D145" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="E145" s="11"/>
+      <c r="F145" s="11">
+        <v>300040</v>
+      </c>
+      <c r="G145" s="3"/>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146">
+        <v>999946</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C146" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="D146" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="E146" s="11"/>
+      <c r="F146" s="11">
+        <v>115040</v>
+      </c>
+      <c r="G146" s="3"/>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147">
+        <v>999946</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C147" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="D147" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="E147" s="11"/>
+      <c r="F147" s="11">
+        <v>175040</v>
+      </c>
+      <c r="G147" s="3"/>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148">
+        <v>999946</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C148" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="D148" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="E148" s="11"/>
+      <c r="F148" s="11">
+        <v>187360</v>
+      </c>
+      <c r="G148" s="3"/>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149">
+        <v>999946</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C149" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="D149" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="E149" s="11"/>
+      <c r="F149" s="11">
+        <v>315040</v>
+      </c>
+      <c r="G149" s="3"/>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150">
+        <v>999946</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C150" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="D150" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="E150" s="11"/>
+      <c r="F150" s="11">
+        <v>429120</v>
+      </c>
+      <c r="G150" s="3"/>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151">
+        <v>999946</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C151" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="D151" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="E151" s="11"/>
+      <c r="F151" s="11">
+        <v>149040</v>
+      </c>
+      <c r="G151" s="3"/>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152">
+        <v>999946</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C152" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="D152" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="E152" s="11"/>
+      <c r="F152" s="11">
+        <v>989800</v>
+      </c>
+      <c r="G152" s="3"/>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153">
+        <v>999946</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C153" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="D153" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="E153" s="11"/>
+      <c r="F153" s="11">
+        <v>397160</v>
+      </c>
+      <c r="G153" s="3"/>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154">
+        <v>999946</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C154" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="D154" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="E154" s="11"/>
+      <c r="F154" s="11">
+        <v>253320</v>
+      </c>
+      <c r="G154" s="3"/>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155">
+        <v>999946</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C155" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="D155" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="E155" s="11"/>
+      <c r="F155" s="11">
+        <v>266720</v>
+      </c>
+      <c r="G155" s="3"/>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156">
+        <v>999946</v>
+      </c>
+      <c r="B156" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C156" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="D156" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="F156" s="12"/>
+      <c r="G156" s="3"/>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="A157">
+        <v>999946</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="F157" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="G157" s="41" t="s">
+        <v>555</v>
+      </c>
+      <c r="H157" s="3">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158">
+        <v>999946</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="F158" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="G158" s="41" t="s">
+        <v>574</v>
+      </c>
+      <c r="H158" s="3">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159">
+        <v>999946</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="F159" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="G159" s="41" t="s">
+        <v>576</v>
+      </c>
+      <c r="H159" s="3">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160">
+        <v>999946</v>
+      </c>
+      <c r="B160" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="F160" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G160" s="41" t="s">
+        <v>577</v>
+      </c>
+      <c r="H160" s="3">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161">
+        <v>999946</v>
+      </c>
+      <c r="B161" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="F161" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="G161" s="41" t="s">
+        <v>579</v>
+      </c>
+      <c r="H161" s="3">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162">
+        <v>999946</v>
+      </c>
+      <c r="B162" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="F162" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="G162" s="41" t="s">
+        <v>581</v>
+      </c>
+      <c r="H162" s="3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163">
+        <v>999946</v>
+      </c>
+      <c r="B163" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="F163" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="G163" s="41" t="s">
+        <v>583</v>
+      </c>
+      <c r="H163" s="3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164">
+        <v>999946</v>
+      </c>
+      <c r="B164" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="F164" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="G164" s="41" t="s">
+        <v>585</v>
+      </c>
+      <c r="H164" s="3">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165">
+        <v>999946</v>
+      </c>
+      <c r="B165" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="F165" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="G165" s="41" t="s">
+        <v>587</v>
+      </c>
+      <c r="H165" s="3">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166">
+        <v>999946</v>
+      </c>
+      <c r="B166" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="F166" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="G166" s="41" t="s">
+        <v>589</v>
+      </c>
+      <c r="H166" s="3">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167">
+        <v>999946</v>
+      </c>
+      <c r="B167" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="F167" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="G167" s="41" t="s">
+        <v>591</v>
+      </c>
+      <c r="H167" s="3">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168">
+        <v>999946</v>
+      </c>
+      <c r="B168" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="F168" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="G168" s="41" t="s">
+        <v>593</v>
+      </c>
+      <c r="H168" s="3">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169">
+        <v>999946</v>
+      </c>
+      <c r="B169" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="F169" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="G169" s="41" t="s">
+        <v>595</v>
+      </c>
+      <c r="H169" s="3">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="A170">
+        <v>999946</v>
+      </c>
+      <c r="B170" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="F170" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="G170" s="41" t="s">
+        <v>597</v>
+      </c>
+      <c r="H170" s="3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="A171">
+        <v>999946</v>
+      </c>
+      <c r="B171" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="F171" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="G171" s="41" t="s">
+        <v>599</v>
+      </c>
+      <c r="H171" s="3">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="A172">
+        <v>999946</v>
+      </c>
+      <c r="B172" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="F172" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="G172" s="41" t="s">
+        <v>601</v>
+      </c>
+      <c r="H172" s="3">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="A173">
+        <v>999946</v>
+      </c>
+      <c r="B173" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="F173" s="14">
+        <v>601</v>
+      </c>
+      <c r="G173" s="3">
+        <v>709207</v>
+      </c>
+      <c r="H173" s="3">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="A174">
+        <v>999946</v>
+      </c>
+      <c r="B174" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="F174" s="14">
+        <v>602</v>
+      </c>
+      <c r="G174" s="3">
+        <v>709208</v>
+      </c>
+      <c r="H174" s="3">
+        <v>149040</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175">
+        <v>999946</v>
+      </c>
+      <c r="B175" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="F175" s="14">
+        <v>603</v>
+      </c>
+      <c r="G175" s="3">
+        <v>709209</v>
+      </c>
+      <c r="H175" s="3">
+        <v>149041</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="A176">
+        <v>999946</v>
+      </c>
+      <c r="B176" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="F176" s="14">
+        <v>604</v>
+      </c>
+      <c r="G176" s="3">
+        <v>709210</v>
+      </c>
+      <c r="H176" s="3">
+        <v>149042</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="A177">
+        <v>999946</v>
+      </c>
+      <c r="B177" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="F177" s="14">
+        <v>605</v>
+      </c>
+      <c r="G177" s="3">
+        <v>709211</v>
+      </c>
+      <c r="H177" s="3">
+        <v>149043</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="A178">
+        <v>999946</v>
+      </c>
+      <c r="B178" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="F178" s="14">
+        <v>606</v>
+      </c>
+      <c r="G178" s="3">
+        <v>709212</v>
+      </c>
+      <c r="H178" s="3">
+        <v>149044</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="A179">
+        <v>999946</v>
+      </c>
+      <c r="B179" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="F179" s="14">
+        <v>607</v>
+      </c>
+      <c r="G179" s="3">
+        <v>709213</v>
+      </c>
+      <c r="H179" s="3">
+        <v>149045</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
+      <c r="A180">
+        <v>999946</v>
+      </c>
+      <c r="B180" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="F180" s="14">
+        <v>608</v>
+      </c>
+      <c r="G180" s="3">
+        <v>709214</v>
+      </c>
+      <c r="H180" s="3">
+        <v>149046</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
+      <c r="A181">
+        <v>999946</v>
+      </c>
+      <c r="B181" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="F181" s="14">
+        <v>609</v>
+      </c>
+      <c r="G181" s="3">
+        <v>709215</v>
+      </c>
+      <c r="H181" s="3">
+        <v>149047</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
+      <c r="A182">
+        <v>999946</v>
+      </c>
+      <c r="B182" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="F182" s="14">
+        <v>610</v>
+      </c>
+      <c r="G182" s="3">
+        <v>709216</v>
+      </c>
+      <c r="H182" s="3">
+        <v>149048</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
+      <c r="A183">
+        <v>999946</v>
+      </c>
+      <c r="B183" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="F183" s="14">
+        <v>611</v>
+      </c>
+      <c r="G183" s="3">
+        <v>709217</v>
+      </c>
+      <c r="H183" s="3">
+        <v>149049</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
+      <c r="A184">
+        <v>999946</v>
+      </c>
+      <c r="B184" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="F184" s="14">
+        <v>612</v>
+      </c>
+      <c r="G184" s="3">
+        <v>709218</v>
+      </c>
+      <c r="H184" s="3">
+        <v>149050</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
+      <c r="A185">
+        <v>999946</v>
+      </c>
+      <c r="B185" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="F185" s="14">
+        <v>613</v>
+      </c>
+      <c r="G185" s="3">
+        <v>709219</v>
+      </c>
+      <c r="H185" s="3">
+        <v>149051</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
+      <c r="A186">
+        <v>999946</v>
+      </c>
+      <c r="B186" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="F186" s="14">
+        <v>614</v>
+      </c>
+      <c r="G186" s="3">
+        <v>709220</v>
+      </c>
+      <c r="H186" s="3">
+        <v>149052</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
+      <c r="A187">
+        <v>999946</v>
+      </c>
+      <c r="B187" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="F187" s="14">
+        <v>615</v>
+      </c>
+      <c r="G187" s="3">
+        <v>709221</v>
+      </c>
+      <c r="H187" s="3">
+        <v>149053</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
+      <c r="A188">
+        <v>999946</v>
+      </c>
+      <c r="B188" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="F188" s="14">
+        <v>616</v>
+      </c>
+      <c r="G188" s="3">
+        <v>709222</v>
+      </c>
+      <c r="H188" s="3">
+        <v>149054</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
